--- a/Sample_Simple.xlsx
+++ b/Sample_Simple.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>Division</t>
   </si>
@@ -404,6 +404,96 @@
   </si>
   <si>
     <t>York College (Pennsylvania)</t>
+  </si>
+  <si>
+    <t>Long Island University-Brooklyn Campus</t>
+  </si>
+  <si>
+    <t>North Carolina Central University</t>
+  </si>
+  <si>
+    <t>Southeastern Louisiana University</t>
+  </si>
+  <si>
+    <t>University of California, Berkeley</t>
+  </si>
+  <si>
+    <t>University of Massachusetts, Amherst</t>
+  </si>
+  <si>
+    <t>University of Missouri, Columbia</t>
+  </si>
+  <si>
+    <t>University of North Carolina Asheville</t>
+  </si>
+  <si>
+    <t>Albany State University (Georgia)</t>
+  </si>
+  <si>
+    <t>California State University, Monterey Bay</t>
+  </si>
+  <si>
+    <t>Georgia Southwestern State University</t>
+  </si>
+  <si>
+    <t>Kutztown University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>Mansfield University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>Metropolitan State University of Denver</t>
+  </si>
+  <si>
+    <t>Missouri Western State University</t>
+  </si>
+  <si>
+    <t>New Mexico Highlands University</t>
+  </si>
+  <si>
+    <t>Slippery Rock University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M International University</t>
+  </si>
+  <si>
+    <t>University of Minnesota, Crookston</t>
+  </si>
+  <si>
+    <t>University of Wisconsin-Parkside</t>
+  </si>
+  <si>
+    <t>Emmanuel College (Massachusetts)</t>
+  </si>
+  <si>
+    <t>Franciscan University of Steubenville</t>
+  </si>
+  <si>
+    <t>Massachusetts College of Liberal Arts</t>
+  </si>
+  <si>
+    <t>Saint Mary's University of Minnesota</t>
+  </si>
+  <si>
+    <t>St. Joseph's College (Long Island)</t>
+  </si>
+  <si>
+    <t>State University of New York at Geneseo</t>
+  </si>
+  <si>
+    <t>State University of New York at Oswego</t>
+  </si>
+  <si>
+    <t>State University of New York Maritime College</t>
+  </si>
+  <si>
+    <t>University of Mary Hardin-Baylor</t>
+  </si>
+  <si>
+    <t>Western Connecticut State University</t>
+  </si>
+  <si>
+    <t>William Paterson University of New Jersey</t>
   </si>
 </sst>
 </file>
@@ -742,7 +832,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -872,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -949,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -993,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -1037,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -1092,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1103,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -1114,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
@@ -1191,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
         <v>36</v>
@@ -1268,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
@@ -1356,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="C56" t="s">
         <v>36</v>
@@ -1367,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s">
         <v>36</v>
@@ -1400,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
         <v>36</v>
@@ -1411,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
         <v>36</v>
@@ -1422,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
         <v>36</v>
@@ -1433,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
         <v>36</v>
@@ -1477,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -1488,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -1532,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -1554,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -1653,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -1697,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -1752,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -1862,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="C102" t="s">
         <v>100</v>
@@ -1895,7 +1985,7 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="C105" t="s">
         <v>100</v>
@@ -1906,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="C106" t="s">
         <v>100</v>
@@ -1917,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="C107" t="s">
         <v>100</v>
@@ -1928,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="C108" t="s">
         <v>100</v>
@@ -1983,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="C113" t="s">
         <v>100</v>
@@ -2071,7 +2161,7 @@
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C121" t="s">
         <v>100</v>
@@ -2082,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C122" t="s">
         <v>100</v>

--- a/Sample_Simple.xlsx
+++ b/Sample_Simple.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Division</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Lipscomb University</t>
   </si>
   <si>
-    <t>Long Island University-Brookly</t>
+    <t>Long Island University-Brooklyn Campus</t>
   </si>
   <si>
     <t>Louisiana Tech University</t>
@@ -82,7 +82,7 @@
     <t>Murray State University</t>
   </si>
   <si>
-    <t>North Carolina Central Univers</t>
+    <t>North Carolina Central University</t>
   </si>
   <si>
     <t>Northern Illinois University</t>
@@ -94,7 +94,7 @@
     <t>Portland State University</t>
   </si>
   <si>
-    <t>Southeastern Louisiana Univers</t>
+    <t>Southeastern Louisiana University</t>
   </si>
   <si>
     <t>St. Bonaventure University</t>
@@ -106,7 +106,7 @@
     <t>University of Arizona</t>
   </si>
   <si>
-    <t>University of California, Berk</t>
+    <t>University of California, Berkeley</t>
   </si>
   <si>
     <t>University of Detroit Mercy</t>
@@ -121,16 +121,16 @@
     <t>University of Hawaii, Manoa</t>
   </si>
   <si>
-    <t>University of Massachusetts, A</t>
-  </si>
-  <si>
-    <t>University of Missouri, Columb</t>
+    <t>University of Massachusetts, Amherst</t>
+  </si>
+  <si>
+    <t>University of Missouri, Columbia</t>
   </si>
   <si>
     <t>Alice</t>
   </si>
   <si>
-    <t>University of North Carolina A</t>
+    <t>University of North Carolina Asheville</t>
   </si>
   <si>
     <t>University of Pennsylvania</t>
@@ -151,7 +151,7 @@
     <t>Wofford College</t>
   </si>
   <si>
-    <t>Albany State University (Georg</t>
+    <t>Albany State University (Georgia)</t>
   </si>
   <si>
     <t>Assumption College</t>
@@ -172,7 +172,7 @@
     <t>Bowie State University</t>
   </si>
   <si>
-    <t>California State University, M</t>
+    <t>California State University, Monterey Bay</t>
   </si>
   <si>
     <t>Catawba College</t>
@@ -196,10 +196,10 @@
     <t>Gannon University</t>
   </si>
   <si>
-    <t>Georgia Southwestern State Uni</t>
-  </si>
-  <si>
-    <t>Kutztown University of Pennsyl</t>
+    <t>Georgia Southwestern State University</t>
+  </si>
+  <si>
+    <t>Kutztown University of Pennsylvania</t>
   </si>
   <si>
     <t>Lenoir-Rhyne University</t>
@@ -208,16 +208,16 @@
     <t>Lubbock Christian University</t>
   </si>
   <si>
-    <t>Mansfield University of Pennsy</t>
-  </si>
-  <si>
-    <t>Metropolitan State University</t>
-  </si>
-  <si>
-    <t>Missouri Western State Univers</t>
-  </si>
-  <si>
-    <t>New Mexico Highlands Universit</t>
+    <t>Mansfield University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>Metropolitan State University of Denver</t>
+  </si>
+  <si>
+    <t>Missouri Western State University</t>
+  </si>
+  <si>
+    <t>New Mexico Highlands University</t>
   </si>
   <si>
     <t>North Greenville University</t>
@@ -232,10 +232,10 @@
     <t>Shaw University</t>
   </si>
   <si>
-    <t>Slippery Rock University of Pe</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M International Univer</t>
+    <t>Slippery Rock University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M International University</t>
   </si>
   <si>
     <t>Texas Woman's University</t>
@@ -247,13 +247,13 @@
     <t>University of Central Missouri</t>
   </si>
   <si>
-    <t>University of Minnesota, Crook</t>
+    <t>University of Minnesota, Crookston</t>
   </si>
   <si>
     <t>University of Mount Olive</t>
   </si>
   <si>
-    <t>University of Wisconsin-Parksi</t>
+    <t>University of Wisconsin-Parkside</t>
   </si>
   <si>
     <t>Westminster College (Utah)</t>
@@ -280,7 +280,7 @@
     <t>Elmira College</t>
   </si>
   <si>
-    <t>Emmanuel College (Massachusett</t>
+    <t>Emmanuel College (Massachusetts)</t>
   </si>
   <si>
     <t>Emory University</t>
@@ -292,7 +292,7 @@
     <t>Fontbonne University</t>
   </si>
   <si>
-    <t>Franciscan University of Steub</t>
+    <t>Franciscan University of Steubenville</t>
   </si>
   <si>
     <t>Hampden-Sydney College</t>
@@ -307,7 +307,7 @@
     <t>Maranatha Baptist University</t>
   </si>
   <si>
-    <t>Massachusetts College of Liber</t>
+    <t>Massachusetts College of Liberal Arts</t>
   </si>
   <si>
     <t>McMurry University</t>
@@ -340,7 +340,7 @@
     <t>Ripon College</t>
   </si>
   <si>
-    <t>Saint Mary's University of Min</t>
+    <t>Saint Mary's University of Minnesota</t>
   </si>
   <si>
     <t>Salisbury University</t>
@@ -349,13 +349,16 @@
     <t>Southern Virginia University</t>
   </si>
   <si>
-    <t>St. Joseph's College (Long Isl</t>
-  </si>
-  <si>
-    <t>State University of New York a</t>
-  </si>
-  <si>
-    <t>State University of New York M</t>
+    <t>St. Joseph's College (Long Island)</t>
+  </si>
+  <si>
+    <t>State University of New York at Geneseo</t>
+  </si>
+  <si>
+    <t>State University of New York at Oswego</t>
+  </si>
+  <si>
+    <t>State University of New York Maritime College</t>
   </si>
   <si>
     <t>Thomas More College</t>
@@ -370,7 +373,7 @@
     <t>Tufts University</t>
   </si>
   <si>
-    <t>University of Mary Hardin-Bayl</t>
+    <t>University of Mary Hardin-Baylor</t>
   </si>
   <si>
     <t>University of Rochester</t>
@@ -394,106 +397,16 @@
     <t>Wesley College</t>
   </si>
   <si>
-    <t>Western Connecticut State Univ</t>
-  </si>
-  <si>
-    <t>William Paterson University of</t>
+    <t>Western Connecticut State University</t>
+  </si>
+  <si>
+    <t>William Paterson University of New Jersey</t>
   </si>
   <si>
     <t>Yeshiva University</t>
   </si>
   <si>
     <t>York College (Pennsylvania)</t>
-  </si>
-  <si>
-    <t>Long Island University-Brooklyn Campus</t>
-  </si>
-  <si>
-    <t>North Carolina Central University</t>
-  </si>
-  <si>
-    <t>Southeastern Louisiana University</t>
-  </si>
-  <si>
-    <t>University of California, Berkeley</t>
-  </si>
-  <si>
-    <t>University of Massachusetts, Amherst</t>
-  </si>
-  <si>
-    <t>University of Missouri, Columbia</t>
-  </si>
-  <si>
-    <t>University of North Carolina Asheville</t>
-  </si>
-  <si>
-    <t>Albany State University (Georgia)</t>
-  </si>
-  <si>
-    <t>California State University, Monterey Bay</t>
-  </si>
-  <si>
-    <t>Georgia Southwestern State University</t>
-  </si>
-  <si>
-    <t>Kutztown University of Pennsylvania</t>
-  </si>
-  <si>
-    <t>Mansfield University of Pennsylvania</t>
-  </si>
-  <si>
-    <t>Metropolitan State University of Denver</t>
-  </si>
-  <si>
-    <t>Missouri Western State University</t>
-  </si>
-  <si>
-    <t>New Mexico Highlands University</t>
-  </si>
-  <si>
-    <t>Slippery Rock University of Pennsylvania</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M International University</t>
-  </si>
-  <si>
-    <t>University of Minnesota, Crookston</t>
-  </si>
-  <si>
-    <t>University of Wisconsin-Parkside</t>
-  </si>
-  <si>
-    <t>Emmanuel College (Massachusetts)</t>
-  </si>
-  <si>
-    <t>Franciscan University of Steubenville</t>
-  </si>
-  <si>
-    <t>Massachusetts College of Liberal Arts</t>
-  </si>
-  <si>
-    <t>Saint Mary's University of Minnesota</t>
-  </si>
-  <si>
-    <t>St. Joseph's College (Long Island)</t>
-  </si>
-  <si>
-    <t>State University of New York at Geneseo</t>
-  </si>
-  <si>
-    <t>State University of New York at Oswego</t>
-  </si>
-  <si>
-    <t>State University of New York Maritime College</t>
-  </si>
-  <si>
-    <t>University of Mary Hardin-Baylor</t>
-  </si>
-  <si>
-    <t>Western Connecticut State University</t>
-  </si>
-  <si>
-    <t>William Paterson University of New Jersey</t>
   </si>
 </sst>
 </file>
@@ -962,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -1039,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -1083,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -1127,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -1182,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1193,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -1204,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
@@ -1281,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>36</v>
@@ -1358,7 +1271,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
@@ -1446,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
         <v>36</v>
@@ -1457,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
         <v>36</v>
@@ -1490,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
         <v>36</v>
@@ -1501,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
         <v>36</v>
@@ -1512,7 +1425,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
         <v>36</v>
@@ -1523,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
         <v>36</v>
@@ -1567,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -1578,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -1622,7 +1535,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -1644,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -1743,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -1787,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -1842,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -1952,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="C102" t="s">
         <v>100</v>
@@ -1985,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="C105" t="s">
         <v>100</v>
@@ -1996,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="C106" t="s">
         <v>100</v>
@@ -2007,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="C107" t="s">
         <v>100</v>
@@ -2018,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
         <v>100</v>
@@ -2029,7 +1942,7 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
         <v>100</v>
@@ -2040,7 +1953,7 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C110" t="s">
         <v>100</v>
@@ -2051,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C111" t="s">
         <v>100</v>
@@ -2062,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C112" t="s">
         <v>100</v>
@@ -2073,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
         <v>100</v>
@@ -2084,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C114" t="s">
         <v>100</v>
@@ -2095,7 +2008,7 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
         <v>100</v>
@@ -2106,7 +2019,7 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C116" t="s">
         <v>100</v>
@@ -2117,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
         <v>100</v>
@@ -2128,7 +2041,7 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C118" t="s">
         <v>100</v>
@@ -2139,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
         <v>100</v>
@@ -2150,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C120" t="s">
         <v>100</v>
@@ -2161,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="C121" t="s">
         <v>100</v>
@@ -2172,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C122" t="s">
         <v>100</v>
@@ -2183,7 +2096,7 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C123" t="s">
         <v>100</v>
@@ -2194,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C124" t="s">
         <v>100</v>
